--- a/biology/Botanique/Livistona_decora/Livistona_decora.xlsx
+++ b/biology/Botanique/Livistona_decora/Livistona_decora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le latanier pleureur, Livistona decora (anciennement Livistona decipens), est une espèce de plantes qui appartient à la grande famille des Arecaceae (palmiers). De toutes les espèces de Livistona, le decora a les pinnules les plus retombantes, et le port le plus « pleureur », d'où son nom vernaculaire.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Stipe : le stipe est fin et élancé, gris et fissuré, renflé à la base il atteint dix mètres de hauteur.
 Feuilles : Au stade juvénile les feuilles sont légèrement costapalmées, profondément découpées. À l'âge adulte les feuilles sont extrêmement lacérées et franchement costapalmées. Les folioles sont particulièrement pendantes donnant un effet de feuilles déchirées.
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est endémique de la côte est du Queensland en Australie, le climat de cette région est tempéré à subtropical. Le Livistona decipiens pousse en de grandes colonies le long des cours d'eau, dans des zones humides ou dans des marécages, jusqu'au bord de mer.
 </t>
@@ -575,7 +591,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est largement acclimatable en zone tempérée douce ou en zone tropicale. La résistance au froid est légèrement supérieure aux autres "Livistona". Les jeunes plants sont capables de supporter des gels de -7 °C sans dégât majeur si les périodes de froid sont courtes. Les plantes adultes ne sont pas trop défoliées à -7 °C ; à -12 °C les sujets robustes montrent de bonnes capacités à refaire des feuilles.
 Les conditions optimales de culture sont avec un sol riche et très humide, été chaud et long, hiver doux.
